--- a/data/flow_20180703_DR.evolution/DR.xlsx
+++ b/data/flow_20180703_DR.evolution/DR.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4EB86C2-F7E4-4BF4-96ED-AF24874CE904}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{796966BF-C830-4292-8456-D1EB69CBAE88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9585" yWindow="3150" windowWidth="18420" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -472,9 +472,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T2" sqref="T2:T6"/>
+      <selection pane="bottomLeft" activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1777,7 +1777,10 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
+      <c r="O24" s="1">
+        <f>_xlfn.STDEV.S(M2:M6)</f>
+        <v>5.3180101817993555E-2</v>
+      </c>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
